--- a/Bahan/Simulasi.xlsx
+++ b/Bahan/Simulasi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KULIAH\SMT 8\MY_SKRIPSI\Bahan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 8\MY_SKRIPSI\Bahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -51,13 +51,31 @@
   </si>
   <si>
     <t>Perolehan</t>
+  </si>
+  <si>
+    <t>Shalat</t>
+  </si>
+  <si>
+    <t>Ta'lim</t>
+  </si>
+  <si>
+    <t>Tahsin/ Tahfidz</t>
+  </si>
+  <si>
+    <t>Nilai Total</t>
+  </si>
+  <si>
+    <t>Tahsin</t>
+  </si>
+  <si>
+    <t>Periode 28 Sep - 4 Okt 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +93,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -107,17 +161,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -125,11 +229,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -405,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,194 +598,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>18101118</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>27</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>33</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>D3/(E3-F3)*100</f>
         <v>93.103448275862064</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B10" s="22">
         <v>18101118</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D10" s="22">
         <v>8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="22">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F10" s="22">
         <v>2</v>
       </c>
-      <c r="G8" s="6">
-        <f>D8/(E8-F8)*100</f>
+      <c r="G10" s="23">
+        <f>D10/(E10-F10)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B19" s="22">
         <v>18101118</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D19" s="22">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E19" s="22">
         <v>3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F19" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="6">
-        <f>D14/(E14-F14)*100</f>
+      <c r="G19" s="23">
+        <f>D19/(E19-F19)*100</f>
         <v>100</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15">
+        <v>18101118</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="17">
+        <v>93.1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>100</v>
+      </c>
+      <c r="F27" s="19">
+        <v>100</v>
+      </c>
+      <c r="G27" s="19">
+        <f>(D27*65%)+(E27*15%)+(F27*20%)</f>
+        <v>95.515000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:G12"/>
+  <mergeCells count="19">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
+  <conditionalFormatting sqref="D27 F27:G27">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
